--- a/Totally accurate natural disaster simulator info.xlsx
+++ b/Totally accurate natural disaster simulator info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Da-Hong Setoo\Documents\GitHub\project-lanoflatfaceo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55AAFF09-2AB1-4674-9879-AA68F34E4A8F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8930867-AA6D-4F33-A35F-A91F3036A574}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{0A7432FE-FCC4-4122-BC3C-0721823B724E}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -466,7 +465,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Totally accurate natural disaster simulator info.xlsx
+++ b/Totally accurate natural disaster simulator info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Da-Hong Setoo\Documents\GitHub\project-lanoflatfaceo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8930867-AA6D-4F33-A35F-A91F3036A574}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D743230F-84EB-4967-99B6-142579AA0751}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{0A7432FE-FCC4-4122-BC3C-0721823B724E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7545" xr2:uid="{0A7432FE-FCC4-4122-BC3C-0721823B724E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -84,15 +84,6 @@
     <t>300 million US dollars</t>
   </si>
   <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Unknown, but very limited</t>
-  </si>
-  <si>
-    <t>Tupple ((R*P)/D=x)</t>
-  </si>
-  <si>
     <t>Jiji, Taiwan</t>
   </si>
   <si>
@@ -109,6 +100,9 @@
   </si>
   <si>
     <t>Scale  (  R  )</t>
+  </si>
+  <si>
+    <t>ratio of population*richter scale, then divided by deaths. (r*p)/d</t>
   </si>
 </sst>
 </file>
@@ -465,17 +459,17 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -493,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -655,32 +649,6 @@
         <v>5.26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>5.2</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>2008</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8">
-        <v>222.7</v>
-      </c>
-      <c r="J8">
-        <v>1158.4000000000001</v>
-      </c>
-    </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>7.3</v>
@@ -692,13 +660,13 @@
         <v>11305</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F9">
         <v>1999</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>560</v>
@@ -715,13 +683,13 @@
         <v>525</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F10">
         <v>2010</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H10">
         <v>61.82</v>

--- a/Totally accurate natural disaster simulator info.xlsx
+++ b/Totally accurate natural disaster simulator info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Da-Hong Setoo\Documents\GitHub\project-lanoflatfaceo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon Seetoo\Documents\GitHub\project-lanoflatfaceo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D743230F-84EB-4967-99B6-142579AA0751}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F7A5D4-3AA1-4FFF-AEA3-066D7E23E833}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7545" xr2:uid="{0A7432FE-FCC4-4122-BC3C-0721823B724E}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>Jiji, Taiwan</t>
   </si>
   <si>
-    <t>300 Billion NT</t>
-  </si>
-  <si>
     <t>Chile</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>ratio of population*richter scale, then divided by deaths. (r*p)/d</t>
+  </si>
+  <si>
+    <t>9,709,365,000.00 USD</t>
   </si>
 </sst>
 </file>
@@ -459,17 +459,17 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -602,10 +602,10 @@
         <v>7.8</v>
       </c>
       <c r="C6">
+        <v>48</v>
+      </c>
+      <c r="D6">
         <v>71</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -660,7 +660,7 @@
         <v>11305</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>1999</v>
@@ -683,13 +683,13 @@
         <v>525</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10">
         <v>2010</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10">
         <v>61.82</v>
